--- a/results/PO_hit.xlsx
+++ b/results/PO_hit.xlsx
@@ -1757,7 +1757,11 @@
       <c r="M9" s="47" t="n"/>
       <c r="N9" s="47" t="n"/>
       <c r="O9" s="48" t="n"/>
-      <c r="P9" s="138" t="n"/>
+      <c r="P9" s="138" t="inlineStr">
+        <is>
+          <t>BCB Supply Chain Solutions</t>
+        </is>
+      </c>
       <c r="S9" s="139" t="n"/>
     </row>
     <row r="10" ht="16" customFormat="1" customHeight="1" s="25">
@@ -1777,7 +1781,11 @@
         </is>
       </c>
       <c r="O10" s="50" t="n"/>
-      <c r="P10" s="138" t="n"/>
+      <c r="P10" s="138" t="inlineStr">
+        <is>
+          <t>221 Bradgate Dr.</t>
+        </is>
+      </c>
       <c r="S10" s="139" t="n"/>
     </row>
     <row r="11" ht="16" customFormat="1" customHeight="1" s="25">
@@ -1797,7 +1805,11 @@
         </is>
       </c>
       <c r="O11" s="50" t="n"/>
-      <c r="P11" s="138" t="n"/>
+      <c r="P11" s="138" t="inlineStr">
+        <is>
+          <t>Yukon, OK 73099</t>
+        </is>
+      </c>
       <c r="S11" s="139" t="n"/>
     </row>
     <row r="12" ht="17" customFormat="1" customHeight="1" s="25" thickBot="1">
